--- a/database/industries/zeraat/simorgh/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/zeraat/simorgh/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B450A3-64F2-4286-9DA0-EE6FC2A8ADEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1956BC44-7106-465C-AB83-47C0E0E08380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>9 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>12 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>3 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-07-28 (2)</t>
-  </si>
-  <si>
     <t>1400-12-25 (11)</t>
   </si>
   <si>
@@ -82,22 +79,25 @@
     <t>1401-06-13 (4)</t>
   </si>
   <si>
-    <t>1401-12-07 (7)</t>
-  </si>
-  <si>
-    <t>1401-12-08 (13)</t>
-  </si>
-  <si>
-    <t>1401-01-30</t>
+    <t>1401-12-03 (6)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (14)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (2)</t>
   </si>
   <si>
     <t>1401-06-13 (2)</t>
   </si>
   <si>
-    <t>1401-12-07 (6)</t>
-  </si>
-  <si>
-    <t>1401-12-08</t>
+    <t>1401-12-03 (5)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (4)</t>
+  </si>
+  <si>
+    <t>1402-01-29</t>
   </si>
   <si>
     <t>ارزش منصفانه تولیدات کشاورزی</t>
@@ -652,19 +652,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -678,7 +678,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -724,7 +724,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -756,7 +756,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -770,7 +770,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -806,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -856,7 +856,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -867,32 +867,32 @@
       <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="13">
         <v>21761</v>
       </c>
+      <c r="G11" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="H11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>27</v>
+      <c r="I11" s="13">
+        <v>14966</v>
+      </c>
+      <c r="J11" s="13">
+        <v>28027</v>
       </c>
       <c r="K11" s="13">
-        <v>28027</v>
+        <v>46941</v>
       </c>
       <c r="L11" s="13">
-        <v>46941</v>
+        <v>65849</v>
       </c>
       <c r="M11" s="13">
-        <v>65849</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
@@ -928,7 +928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>29</v>
       </c>
@@ -939,32 +939,32 @@
       <c r="E13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>27</v>
+      <c r="F13" s="13">
+        <v>22585</v>
       </c>
       <c r="G13" s="13">
-        <v>22585</v>
+        <v>39686</v>
       </c>
       <c r="H13" s="13">
-        <v>39686</v>
+        <v>57166</v>
       </c>
       <c r="I13" s="13">
-        <v>57166</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>27</v>
+        <v>15604</v>
+      </c>
+      <c r="J13" s="13">
+        <v>29498</v>
       </c>
       <c r="K13" s="13">
-        <v>29498</v>
+        <v>48155</v>
       </c>
       <c r="L13" s="13">
-        <v>48155</v>
+        <v>67827</v>
       </c>
       <c r="M13" s="13">
-        <v>67827</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15620</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
@@ -975,68 +975,68 @@
       <c r="E14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="F14" s="11">
         <v>-21790</v>
       </c>
+      <c r="G14" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>27</v>
+      <c r="I14" s="11">
+        <v>-15248</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-28649</v>
       </c>
       <c r="K14" s="11">
-        <v>-28649</v>
+        <v>-46876</v>
       </c>
       <c r="L14" s="11">
-        <v>-46876</v>
+        <v>-65693</v>
       </c>
       <c r="M14" s="11">
-        <v>-65693</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-15218</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
-        <v>28607</v>
+        <v>37334</v>
       </c>
       <c r="E15" s="15">
-        <v>37334</v>
+        <v>10745</v>
       </c>
       <c r="F15" s="15">
-        <v>10745</v>
+        <v>22556</v>
       </c>
       <c r="G15" s="15">
-        <v>22556</v>
+        <v>39686</v>
       </c>
       <c r="H15" s="15">
-        <v>39686</v>
+        <v>57166</v>
       </c>
       <c r="I15" s="15">
-        <v>57166</v>
+        <v>15322</v>
       </c>
       <c r="J15" s="15">
-        <v>15322</v>
+        <v>28875</v>
       </c>
       <c r="K15" s="15">
-        <v>28875</v>
+        <v>48220</v>
       </c>
       <c r="L15" s="15">
-        <v>48220</v>
+        <v>67982</v>
       </c>
       <c r="M15" s="15">
-        <v>67982</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15517</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
@@ -1047,176 +1047,176 @@
       <c r="E16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>27</v>
+      <c r="F16" s="11">
+        <v>-15574</v>
       </c>
       <c r="G16" s="11">
-        <v>-15574</v>
+        <v>-25830</v>
       </c>
       <c r="H16" s="11">
-        <v>-25830</v>
+        <v>-35795</v>
       </c>
       <c r="I16" s="11">
-        <v>-35795</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>27</v>
+        <v>-9659</v>
+      </c>
+      <c r="J16" s="11">
+        <v>-19477</v>
       </c>
       <c r="K16" s="11">
-        <v>-19477</v>
+        <v>-34391</v>
       </c>
       <c r="L16" s="11">
-        <v>-34391</v>
+        <v>-50221</v>
       </c>
       <c r="M16" s="11">
-        <v>-50221</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-13411</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13">
-        <v>-2005</v>
+        <v>-2866</v>
       </c>
       <c r="E17" s="13">
-        <v>-2866</v>
+        <v>-609</v>
       </c>
       <c r="F17" s="13">
-        <v>-609</v>
+        <v>-1366</v>
       </c>
       <c r="G17" s="13">
-        <v>-1366</v>
+        <v>-2085</v>
       </c>
       <c r="H17" s="13">
-        <v>-2085</v>
+        <v>-3033</v>
       </c>
       <c r="I17" s="13">
-        <v>-3033</v>
+        <v>-847</v>
       </c>
       <c r="J17" s="13">
-        <v>-847</v>
+        <v>-1953</v>
       </c>
       <c r="K17" s="13">
-        <v>-1953</v>
+        <v>-2826</v>
       </c>
       <c r="L17" s="13">
-        <v>-2826</v>
+        <v>-4113</v>
       </c>
       <c r="M17" s="13">
-        <v>-3708</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-718</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>58</v>
-      </c>
-      <c r="E18" s="11">
         <v>322</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>27</v>
+      <c r="E18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="11">
+        <v>50</v>
       </c>
       <c r="G18" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="11">
-        <v>49</v>
-      </c>
-      <c r="I18" s="11">
         <v>481</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>27</v>
+      <c r="I18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="11">
+        <v>46</v>
       </c>
       <c r="K18" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L18" s="11">
-        <v>44</v>
-      </c>
-      <c r="M18" s="11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-260</v>
+        <v>-257</v>
       </c>
       <c r="E19" s="13">
-        <v>-257</v>
+        <v>-31</v>
       </c>
       <c r="F19" s="13">
-        <v>-31</v>
+        <v>-103</v>
       </c>
       <c r="G19" s="13">
-        <v>-103</v>
+        <v>-202</v>
       </c>
       <c r="H19" s="13">
-        <v>-202</v>
+        <v>-312</v>
       </c>
       <c r="I19" s="13">
-        <v>-312</v>
+        <v>-51</v>
       </c>
       <c r="J19" s="13">
-        <v>-51</v>
+        <v>-124</v>
       </c>
       <c r="K19" s="13">
-        <v>-124</v>
+        <v>-186</v>
       </c>
       <c r="L19" s="13">
-        <v>-186</v>
+        <v>-255</v>
       </c>
       <c r="M19" s="13">
-        <v>-255</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>3372</v>
+        <v>6907</v>
       </c>
       <c r="E20" s="17">
-        <v>6907</v>
+        <v>3336</v>
       </c>
       <c r="F20" s="17">
-        <v>3336</v>
+        <v>5564</v>
       </c>
       <c r="G20" s="17">
-        <v>5564</v>
+        <v>11617</v>
       </c>
       <c r="H20" s="17">
-        <v>11617</v>
+        <v>18507</v>
       </c>
       <c r="I20" s="17">
-        <v>18507</v>
+        <v>4765</v>
       </c>
       <c r="J20" s="17">
-        <v>4765</v>
+        <v>7368</v>
       </c>
       <c r="K20" s="17">
-        <v>7368</v>
+        <v>10861</v>
       </c>
       <c r="L20" s="17">
-        <v>10861</v>
+        <v>14018</v>
       </c>
       <c r="M20" s="17">
-        <v>13841</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
@@ -1227,68 +1227,68 @@
       <c r="E21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>27</v>
+      <c r="F21" s="13">
+        <v>357</v>
       </c>
       <c r="G21" s="13">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="H21" s="13">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="I21" s="13">
-        <v>485</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>27</v>
+        <v>144</v>
+      </c>
+      <c r="J21" s="13">
+        <v>351</v>
       </c>
       <c r="K21" s="13">
-        <v>351</v>
+        <v>452</v>
       </c>
       <c r="L21" s="13">
-        <v>452</v>
+        <v>1235</v>
       </c>
       <c r="M21" s="13">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="E22" s="11">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="F22" s="11">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="G22" s="11">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="H22" s="11">
-        <v>185</v>
-      </c>
-      <c r="I22" s="11">
         <v>402</v>
       </c>
+      <c r="I22" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="J22" s="11">
-        <v>457</v>
+        <v>878</v>
       </c>
       <c r="K22" s="11">
-        <v>878</v>
+        <v>1080</v>
       </c>
       <c r="L22" s="11">
-        <v>1080</v>
-      </c>
-      <c r="M22" s="11">
         <v>1469</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1308,8 +1308,8 @@
       <c r="H23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>27</v>
+      <c r="I23" s="13">
+        <v>457</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>27</v>
@@ -1320,32 +1320,32 @@
       <c r="L23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11">
-        <v>-206</v>
+        <v>-284</v>
       </c>
       <c r="E24" s="11">
-        <v>-284</v>
+        <v>-16</v>
       </c>
       <c r="F24" s="11">
-        <v>-16</v>
+        <v>-83</v>
       </c>
       <c r="G24" s="11">
-        <v>-83</v>
+        <v>-81</v>
       </c>
       <c r="H24" s="11">
         <v>-81</v>
       </c>
       <c r="I24" s="11">
-        <v>-81</v>
+        <v>-2</v>
       </c>
       <c r="J24" s="11">
         <v>-2</v>
@@ -1354,113 +1354,113 @@
         <v>-2</v>
       </c>
       <c r="L24" s="11">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M24" s="11">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15">
-        <v>3413</v>
+        <v>7068</v>
       </c>
       <c r="E25" s="15">
-        <v>7068</v>
+        <v>3519</v>
       </c>
       <c r="F25" s="15">
-        <v>3519</v>
+        <v>5975</v>
       </c>
       <c r="G25" s="15">
-        <v>5975</v>
+        <v>12137</v>
       </c>
       <c r="H25" s="15">
-        <v>12137</v>
+        <v>19312</v>
       </c>
       <c r="I25" s="15">
-        <v>19312</v>
+        <v>5364</v>
       </c>
       <c r="J25" s="15">
-        <v>5364</v>
+        <v>8595</v>
       </c>
       <c r="K25" s="15">
-        <v>8595</v>
+        <v>12390</v>
       </c>
       <c r="L25" s="15">
-        <v>12390</v>
+        <v>16719</v>
       </c>
       <c r="M25" s="15">
-        <v>16542</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>-38</v>
-      </c>
-      <c r="E26" s="11">
         <v>-50</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>27</v>
+      <c r="E26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="11">
+        <v>-31</v>
       </c>
       <c r="G26" s="11">
-        <v>-31</v>
+        <v>-52</v>
       </c>
       <c r="H26" s="11">
-        <v>-52</v>
-      </c>
-      <c r="I26" s="11">
         <v>-49</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>27</v>
+      <c r="I26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-41</v>
       </c>
       <c r="K26" s="11">
-        <v>-41</v>
+        <v>-82</v>
       </c>
       <c r="L26" s="11">
-        <v>-82</v>
-      </c>
-      <c r="M26" s="11">
         <v>-143</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="D27" s="13">
         <v>-15</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="E27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="13">
         <v>-4</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="13">
+      <c r="G27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="13">
         <v>-17</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="13">
+      <c r="I27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="13">
         <v>-34</v>
       </c>
+      <c r="K27" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="L27" s="13" t="s">
         <v>27</v>
       </c>
@@ -1468,43 +1468,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17">
-        <v>3375</v>
+        <v>7003</v>
       </c>
       <c r="E28" s="17">
-        <v>7003</v>
+        <v>3519</v>
       </c>
       <c r="F28" s="17">
-        <v>3519</v>
+        <v>5940</v>
       </c>
       <c r="G28" s="17">
-        <v>5940</v>
+        <v>12085</v>
       </c>
       <c r="H28" s="17">
-        <v>12085</v>
+        <v>19247</v>
       </c>
       <c r="I28" s="17">
-        <v>19247</v>
+        <v>5364</v>
       </c>
       <c r="J28" s="17">
-        <v>5364</v>
+        <v>8520</v>
       </c>
       <c r="K28" s="17">
-        <v>8520</v>
+        <v>12308</v>
       </c>
       <c r="L28" s="17">
-        <v>12308</v>
+        <v>16576</v>
       </c>
       <c r="M28" s="17">
-        <v>16399</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>45</v>
       </c>
@@ -1540,43 +1540,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17">
-        <v>3375</v>
+        <v>7003</v>
       </c>
       <c r="E30" s="17">
-        <v>7003</v>
+        <v>3519</v>
       </c>
       <c r="F30" s="17">
-        <v>3519</v>
+        <v>5940</v>
       </c>
       <c r="G30" s="17">
-        <v>5940</v>
+        <v>12085</v>
       </c>
       <c r="H30" s="17">
-        <v>12085</v>
+        <v>19247</v>
       </c>
       <c r="I30" s="17">
-        <v>19247</v>
+        <v>5364</v>
       </c>
       <c r="J30" s="17">
-        <v>5364</v>
+        <v>8520</v>
       </c>
       <c r="K30" s="17">
-        <v>8520</v>
+        <v>12308</v>
       </c>
       <c r="L30" s="17">
-        <v>12308</v>
+        <v>16576</v>
       </c>
       <c r="M30" s="17">
-        <v>16399</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>47</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1695,8 +1695,8 @@
       <c r="E34" s="11">
         <v>0</v>
       </c>
-      <c r="F34" s="11">
-        <v>0</v>
+      <c r="F34" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>27</v>
@@ -1707,8 +1707,8 @@
       <c r="I34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="11">
-        <v>0</v>
+      <c r="J34" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>27</v>
@@ -1720,7 +1720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1731,68 +1731,68 @@
       <c r="E35" s="15">
         <v>0</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
+      <c r="F35" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
-        <v>7432</v>
+        <v>6525</v>
       </c>
       <c r="E36" s="11">
-        <v>6525</v>
-      </c>
-      <c r="F36" s="11">
         <v>5323</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="G36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="11">
+      <c r="H36" s="11">
+        <v>5075</v>
+      </c>
+      <c r="I36" s="11">
         <v>4720</v>
       </c>
+      <c r="J36" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="11">
+        <v>4235</v>
+      </c>
+      <c r="M36" s="11">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
